--- a/externalData/SKU match 3.xlsx
+++ b/externalData/SKU match 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="665">
   <si>
     <t>Brand</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>111-ct002-100-03</t>
+  </si>
+  <si>
+    <t>SCH-00004-000002</t>
   </si>
   <si>
     <t>SCH-00005</t>
@@ -4994,7 +4997,7 @@
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -5070,7 +5073,7 @@
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="9" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -11800,7 +11803,7 @@
       <c r="F113" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="9" t="s">
         <v>336</v>
       </c>
       <c r="H113" s="8" t="s">
@@ -11884,7 +11887,7 @@
       <c r="F114" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="9" t="s">
         <v>341</v>
       </c>
       <c r="H114" s="8" t="s">
@@ -12049,7 +12052,7 @@
         <v>345</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>347</v>
@@ -12125,16 +12128,16 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>338</v>
@@ -12207,16 +12210,16 @@
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>338</v>
@@ -12278,32 +12281,32 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C119" s="4" t="str">
         <f t="array" ref="C119">XLOOKUP(DataSet!$B119,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>59</v>
@@ -12330,10 +12333,10 @@
         <v>239</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S119" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T119" s="4" t="s">
         <v>251</v>
@@ -12366,32 +12369,32 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="array" ref="C120">XLOOKUP(DataSet!$B120,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>59</v>
@@ -12418,10 +12421,10 @@
         <v>239</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S120" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T120" s="4" t="s">
         <v>251</v>
@@ -12454,32 +12457,32 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="array" ref="C121">XLOOKUP(DataSet!$B121,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>59</v>
@@ -12506,10 +12509,10 @@
         <v>239</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S121" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T121" s="4" t="s">
         <v>251</v>
@@ -12542,32 +12545,32 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="array" ref="C122">XLOOKUP(DataSet!$B122,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>59</v>
@@ -12594,10 +12597,10 @@
         <v>239</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S122" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T122" s="4" t="s">
         <v>251</v>
@@ -12630,32 +12633,32 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="array" ref="C123">XLOOKUP(DataSet!$B123,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>59</v>
@@ -12682,10 +12685,10 @@
         <v>239</v>
       </c>
       <c r="R123" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S123" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T123" s="4" t="s">
         <v>251</v>
@@ -12718,32 +12721,32 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C124" s="4" t="str">
         <f t="array" ref="C124">XLOOKUP(DataSet!$B124,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>59</v>
@@ -12770,10 +12773,10 @@
         <v>239</v>
       </c>
       <c r="R124" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S124" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T124" s="4" t="s">
         <v>251</v>
@@ -12806,32 +12809,32 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="array" ref="C125">XLOOKUP(DataSet!$B125,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>59</v>
@@ -12858,10 +12861,10 @@
         <v>239</v>
       </c>
       <c r="R125" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S125" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T125" s="4" t="s">
         <v>251</v>
@@ -12894,32 +12897,32 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C126" s="4" t="str">
         <f t="array" ref="C126">XLOOKUP(DataSet!$B126,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>59</v>
@@ -12946,10 +12949,10 @@
         <v>239</v>
       </c>
       <c r="R126" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S126" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T126" s="4" t="s">
         <v>251</v>
@@ -12982,32 +12985,32 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C127" s="4" t="str">
         <f t="array" ref="C127">XLOOKUP(DataSet!$B127,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>59</v>
@@ -13034,10 +13037,10 @@
         <v>239</v>
       </c>
       <c r="R127" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S127" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T127" s="4" t="s">
         <v>251</v>
@@ -13070,32 +13073,32 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="array" ref="C128">XLOOKUP(DataSet!$B128,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>59</v>
@@ -13122,10 +13125,10 @@
         <v>239</v>
       </c>
       <c r="R128" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S128" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T128" s="4" t="s">
         <v>251</v>
@@ -13158,32 +13161,32 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="array" ref="C129">XLOOKUP(DataSet!$B129,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>59</v>
@@ -13210,10 +13213,10 @@
         <v>239</v>
       </c>
       <c r="R129" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S129" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T129" s="4" t="s">
         <v>251</v>
@@ -13246,32 +13249,32 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C130" s="4" t="str">
         <f t="array" ref="C130">XLOOKUP(DataSet!$B130,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>59</v>
@@ -13298,10 +13301,10 @@
         <v>239</v>
       </c>
       <c r="R130" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S130" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T130" s="4" t="s">
         <v>251</v>
@@ -13334,32 +13337,32 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C131" s="4" t="str">
         <f t="array" ref="C131">XLOOKUP(DataSet!$B131,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>59</v>
@@ -13386,10 +13389,10 @@
         <v>239</v>
       </c>
       <c r="R131" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S131" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T131" s="4" t="s">
         <v>251</v>
@@ -13422,32 +13425,32 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C132" s="4" t="str">
         <f t="array" ref="C132">XLOOKUP(DataSet!$B132,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>59</v>
@@ -13474,10 +13477,10 @@
         <v>239</v>
       </c>
       <c r="R132" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S132" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T132" s="4" t="s">
         <v>251</v>
@@ -13510,32 +13513,32 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C133" s="4" t="str">
         <f t="array" ref="C133">XLOOKUP(DataSet!$B133,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>59</v>
@@ -13562,10 +13565,10 @@
         <v>239</v>
       </c>
       <c r="R133" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S133" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T133" s="4" t="s">
         <v>251</v>
@@ -13598,32 +13601,32 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C134" s="4" t="str">
         <f t="array" ref="C134">XLOOKUP(DataSet!$B134,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>59</v>
@@ -13650,10 +13653,10 @@
         <v>239</v>
       </c>
       <c r="R134" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S134" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T134" s="4" t="s">
         <v>251</v>
@@ -13686,32 +13689,32 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C135" s="4" t="str">
         <f t="array" ref="C135">XLOOKUP(DataSet!$B135,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>59</v>
@@ -13738,10 +13741,10 @@
         <v>239</v>
       </c>
       <c r="R135" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S135" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T135" s="4" t="s">
         <v>251</v>
@@ -13774,32 +13777,32 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C136" s="4" t="str">
         <f t="array" ref="C136">XLOOKUP(DataSet!$B136,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J136" s="4" t="s">
         <v>59</v>
@@ -13826,10 +13829,10 @@
         <v>239</v>
       </c>
       <c r="R136" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S136" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T136" s="4" t="s">
         <v>251</v>
@@ -13862,32 +13865,32 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C137" s="4" t="str">
         <f t="array" ref="C137">XLOOKUP(DataSet!$B137,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>59</v>
@@ -13914,10 +13917,10 @@
         <v>239</v>
       </c>
       <c r="R137" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S137" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T137" s="4" t="s">
         <v>251</v>
@@ -13950,32 +13953,32 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C138" s="4" t="str">
         <f t="array" ref="C138">XLOOKUP(DataSet!$B138,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>59</v>
@@ -14002,10 +14005,10 @@
         <v>239</v>
       </c>
       <c r="R138" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S138" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T138" s="4" t="s">
         <v>251</v>
@@ -14038,32 +14041,32 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C139" s="4" t="str">
         <f t="array" ref="C139">XLOOKUP(DataSet!$B139,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>59</v>
@@ -14090,10 +14093,10 @@
         <v>239</v>
       </c>
       <c r="R139" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S139" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T139" s="4" t="s">
         <v>251</v>
@@ -14126,32 +14129,32 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C140" s="4" t="str">
         <f t="array" ref="C140">XLOOKUP(DataSet!$B140,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>59</v>
@@ -14178,10 +14181,10 @@
         <v>239</v>
       </c>
       <c r="R140" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S140" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T140" s="4" t="s">
         <v>251</v>
@@ -14214,32 +14217,32 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C141" s="4" t="str">
         <f t="array" ref="C141">XLOOKUP(DataSet!$B141,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>59</v>
@@ -14266,10 +14269,10 @@
         <v>239</v>
       </c>
       <c r="R141" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S141" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T141" s="4" t="s">
         <v>251</v>
@@ -14302,32 +14305,32 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C142" s="4" t="str">
         <f t="array" ref="C142">XLOOKUP(DataSet!$B142,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>59</v>
@@ -14354,10 +14357,10 @@
         <v>239</v>
       </c>
       <c r="R142" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S142" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T142" s="4" t="s">
         <v>251</v>
@@ -14390,32 +14393,32 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C143" s="4" t="str">
         <f t="array" ref="C143">XLOOKUP(DataSet!$B143,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>59</v>
@@ -14442,10 +14445,10 @@
         <v>239</v>
       </c>
       <c r="R143" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S143" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T143" s="4" t="s">
         <v>251</v>
@@ -14478,32 +14481,32 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C144" s="4" t="str">
         <f t="array" ref="C144">XLOOKUP(DataSet!$B144,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>59</v>
@@ -14530,10 +14533,10 @@
         <v>239</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S144" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T144" s="4" t="s">
         <v>251</v>
@@ -14566,32 +14569,32 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="array" ref="C145">XLOOKUP(DataSet!$B145,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>59</v>
@@ -14618,10 +14621,10 @@
         <v>239</v>
       </c>
       <c r="R145" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S145" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T145" s="4" t="s">
         <v>251</v>
@@ -14654,32 +14657,32 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C146" s="4" t="str">
         <f t="array" ref="C146">XLOOKUP(DataSet!$B146,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>59</v>
@@ -14706,10 +14709,10 @@
         <v>239</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S146" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T146" s="4" t="s">
         <v>251</v>
@@ -14742,32 +14745,32 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C147" s="4" t="str">
         <f t="array" ref="C147">XLOOKUP(DataSet!$B147,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>59</v>
@@ -14794,10 +14797,10 @@
         <v>239</v>
       </c>
       <c r="R147" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S147" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T147" s="4" t="s">
         <v>251</v>
@@ -14830,32 +14833,32 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C148" s="4" t="str">
         <f t="array" ref="C148">XLOOKUP(DataSet!$B148,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>59</v>
@@ -14882,10 +14885,10 @@
         <v>239</v>
       </c>
       <c r="R148" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S148" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T148" s="4" t="s">
         <v>251</v>
@@ -14918,32 +14921,32 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C149" s="4" t="str">
         <f t="array" ref="C149">XLOOKUP(DataSet!$B149,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>59</v>
@@ -14970,10 +14973,10 @@
         <v>239</v>
       </c>
       <c r="R149" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S149" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T149" s="4" t="s">
         <v>251</v>
@@ -15006,32 +15009,32 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C150" s="4" t="str">
         <f t="array" ref="C150">XLOOKUP(DataSet!$B150,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>59</v>
@@ -15058,10 +15061,10 @@
         <v>239</v>
       </c>
       <c r="R150" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S150" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T150" s="4" t="s">
         <v>251</v>
@@ -15094,32 +15097,32 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C151" s="4" t="str">
         <f t="array" ref="C151">XLOOKUP(DataSet!$B151,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>59</v>
@@ -15146,10 +15149,10 @@
         <v>239</v>
       </c>
       <c r="R151" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S151" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T151" s="4" t="s">
         <v>251</v>
@@ -15182,32 +15185,32 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C152" s="4" t="str">
         <f t="array" ref="C152">XLOOKUP(DataSet!$B152,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>59</v>
@@ -15234,10 +15237,10 @@
         <v>239</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S152" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T152" s="4" t="s">
         <v>251</v>
@@ -15270,32 +15273,32 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C153" s="4" t="str">
         <f t="array" ref="C153">XLOOKUP(DataSet!$B153,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>59</v>
@@ -15322,10 +15325,10 @@
         <v>239</v>
       </c>
       <c r="R153" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S153" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T153" s="4" t="s">
         <v>251</v>
@@ -15358,32 +15361,32 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C154" s="4" t="str">
         <f t="array" ref="C154">XLOOKUP(DataSet!$B154,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>59</v>
@@ -15410,10 +15413,10 @@
         <v>239</v>
       </c>
       <c r="R154" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S154" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T154" s="4" t="s">
         <v>251</v>
@@ -15446,32 +15449,32 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C155" s="4" t="str">
         <f t="array" ref="C155">XLOOKUP(DataSet!$B155,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>59</v>
@@ -15498,10 +15501,10 @@
         <v>239</v>
       </c>
       <c r="R155" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S155" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T155" s="4" t="s">
         <v>251</v>
@@ -15534,32 +15537,32 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" s="4" t="str">
         <f t="array" ref="C156">XLOOKUP(DataSet!$B156,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>59</v>
@@ -15586,10 +15589,10 @@
         <v>239</v>
       </c>
       <c r="R156" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S156" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T156" s="4" t="s">
         <v>251</v>
@@ -15622,32 +15625,32 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C157" s="4" t="str">
         <f t="array" ref="C157">XLOOKUP(DataSet!$B157,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>59</v>
@@ -15674,10 +15677,10 @@
         <v>239</v>
       </c>
       <c r="R157" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S157" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T157" s="4" t="s">
         <v>251</v>
@@ -15710,32 +15713,32 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C158" s="4" t="str">
         <f t="array" ref="C158">XLOOKUP(DataSet!$B158,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>59</v>
@@ -15762,10 +15765,10 @@
         <v>239</v>
       </c>
       <c r="R158" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S158" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T158" s="4" t="s">
         <v>251</v>
@@ -15798,32 +15801,32 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C159" s="4" t="str">
         <f t="array" ref="C159">XLOOKUP(DataSet!$B159,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>59</v>
@@ -15850,10 +15853,10 @@
         <v>239</v>
       </c>
       <c r="R159" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S159" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T159" s="4" t="s">
         <v>251</v>
@@ -15886,32 +15889,32 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C160" s="4" t="str">
         <f t="array" ref="C160">XLOOKUP(DataSet!$B160,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>59</v>
@@ -15938,10 +15941,10 @@
         <v>239</v>
       </c>
       <c r="R160" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S160" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T160" s="4" t="s">
         <v>251</v>
@@ -15974,32 +15977,32 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C161" s="4" t="str">
         <f t="array" ref="C161">XLOOKUP(DataSet!$B161,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>59</v>
@@ -16026,10 +16029,10 @@
         <v>239</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S161" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T161" s="4" t="s">
         <v>251</v>
@@ -16062,32 +16065,32 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C162" s="4" t="str">
         <f t="array" ref="C162">XLOOKUP(DataSet!$B162,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>59</v>
@@ -16114,10 +16117,10 @@
         <v>239</v>
       </c>
       <c r="R162" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T162" s="4" t="s">
         <v>251</v>
@@ -16150,32 +16153,32 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C163" s="4" t="str">
         <f t="array" ref="C163">XLOOKUP(DataSet!$B163,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>59</v>
@@ -16202,10 +16205,10 @@
         <v>239</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S163" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T163" s="4" t="s">
         <v>251</v>
@@ -16238,32 +16241,32 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C164" s="4" t="str">
         <f t="array" ref="C164">XLOOKUP(DataSet!$B164,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>59</v>
@@ -16290,10 +16293,10 @@
         <v>239</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S164" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T164" s="4" t="s">
         <v>251</v>
@@ -16326,32 +16329,32 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C165" s="4" t="str">
         <f t="array" ref="C165">XLOOKUP(DataSet!$B165,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>59</v>
@@ -16378,10 +16381,10 @@
         <v>239</v>
       </c>
       <c r="R165" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S165" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T165" s="4" t="s">
         <v>251</v>
@@ -16414,32 +16417,32 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C166" s="4" t="str">
         <f t="array" ref="C166">XLOOKUP(DataSet!$B166,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>59</v>
@@ -16466,10 +16469,10 @@
         <v>239</v>
       </c>
       <c r="R166" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S166" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T166" s="4" t="s">
         <v>251</v>
@@ -16502,32 +16505,32 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C167" s="4" t="str">
         <f t="array" ref="C167">XLOOKUP(DataSet!$B167,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>59</v>
@@ -16554,10 +16557,10 @@
         <v>239</v>
       </c>
       <c r="R167" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S167" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T167" s="4" t="s">
         <v>251</v>
@@ -16590,32 +16593,32 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C168" s="4" t="str">
         <f t="array" ref="C168">XLOOKUP(DataSet!$B168,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>59</v>
@@ -16642,10 +16645,10 @@
         <v>239</v>
       </c>
       <c r="R168" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S168" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T168" s="4" t="s">
         <v>251</v>
@@ -16678,32 +16681,32 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C169" s="4" t="str">
         <f t="array" ref="C169">XLOOKUP(DataSet!$B169,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>59</v>
@@ -16730,10 +16733,10 @@
         <v>239</v>
       </c>
       <c r="R169" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S169" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T169" s="4" t="s">
         <v>251</v>
@@ -16766,32 +16769,32 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C170" s="4" t="str">
         <f t="array" ref="C170">XLOOKUP(DataSet!$B170,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>59</v>
@@ -16818,10 +16821,10 @@
         <v>239</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S170" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T170" s="4" t="s">
         <v>251</v>
@@ -16854,32 +16857,32 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C171" s="4" t="str">
         <f t="array" ref="C171">XLOOKUP(DataSet!$B171,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>59</v>
@@ -16906,10 +16909,10 @@
         <v>239</v>
       </c>
       <c r="R171" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S171" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T171" s="4" t="s">
         <v>251</v>
@@ -16942,32 +16945,32 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C172" s="4" t="str">
         <f t="array" ref="C172">XLOOKUP(DataSet!$B172,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>59</v>
@@ -16994,10 +16997,10 @@
         <v>239</v>
       </c>
       <c r="R172" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S172" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T172" s="4" t="s">
         <v>251</v>
@@ -17030,32 +17033,32 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C173" s="4" t="str">
         <f t="array" ref="C173">XLOOKUP(DataSet!$B173,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>59</v>
@@ -17082,10 +17085,10 @@
         <v>239</v>
       </c>
       <c r="R173" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S173" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T173" s="4" t="s">
         <v>251</v>
@@ -17118,32 +17121,32 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C174" s="4" t="str">
         <f t="array" ref="C174">XLOOKUP(DataSet!$B174,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>59</v>
@@ -17170,10 +17173,10 @@
         <v>239</v>
       </c>
       <c r="R174" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S174" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T174" s="4" t="s">
         <v>251</v>
@@ -17206,32 +17209,32 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C175" s="4" t="str">
         <f t="array" ref="C175">XLOOKUP(DataSet!$B175,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>59</v>
@@ -17258,10 +17261,10 @@
         <v>239</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T175" s="4" t="s">
         <v>251</v>
@@ -17294,32 +17297,32 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C176" s="4" t="str">
         <f t="array" ref="C176">XLOOKUP(DataSet!$B176,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>59</v>
@@ -17346,10 +17349,10 @@
         <v>239</v>
       </c>
       <c r="R176" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S176" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T176" s="4" t="s">
         <v>251</v>
@@ -17382,32 +17385,32 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C177" s="4" t="str">
         <f t="array" ref="C177">XLOOKUP(DataSet!$B177,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>59</v>
@@ -17434,10 +17437,10 @@
         <v>239</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S177" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T177" s="4" t="s">
         <v>251</v>
@@ -17470,32 +17473,32 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C178" s="4" t="str">
         <f t="array" ref="C178">XLOOKUP(DataSet!$B178,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>59</v>
@@ -17522,10 +17525,10 @@
         <v>239</v>
       </c>
       <c r="R178" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S178" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T178" s="4" t="s">
         <v>251</v>
@@ -17558,32 +17561,32 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C179" s="4" t="str">
         <f t="array" ref="C179">XLOOKUP(DataSet!$B179,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>59</v>
@@ -17595,7 +17598,7 @@
         <v>249</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N179" s="4" t="s">
         <v>61</v>
@@ -17616,10 +17619,10 @@
         <v>0.05</v>
       </c>
       <c r="T179" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U179" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V179" s="4" t="s">
         <v>63</v>
@@ -17650,32 +17653,32 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C180" s="4" t="str">
         <f t="array" ref="C180">XLOOKUP(DataSet!$B180,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>59</v>
@@ -17708,10 +17711,10 @@
         <v>0.05</v>
       </c>
       <c r="T180" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U180" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V180" s="4" t="s">
         <v>63</v>
@@ -17742,32 +17745,32 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C181" s="4" t="str">
         <f t="array" ref="C181">XLOOKUP(DataSet!$B181,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>59</v>
@@ -17779,7 +17782,7 @@
         <v>249</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N181" s="4" t="s">
         <v>61</v>
@@ -17800,10 +17803,10 @@
         <v>0.05</v>
       </c>
       <c r="T181" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V181" s="4" t="s">
         <v>63</v>
@@ -17834,32 +17837,32 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C182" s="4" t="str">
         <f t="array" ref="C182">XLOOKUP(DataSet!$B182,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>59</v>
@@ -17892,10 +17895,10 @@
         <v>0.05</v>
       </c>
       <c r="T182" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U182" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V182" s="4" t="s">
         <v>63</v>
@@ -17926,32 +17929,32 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C183" s="4" t="str">
         <f t="array" ref="C183">XLOOKUP(DataSet!$B183,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>59</v>
@@ -17978,10 +17981,10 @@
         <v>253</v>
       </c>
       <c r="R183" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S183" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T183" s="4" t="s">
         <v>65</v>
@@ -18014,32 +18017,32 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C184" s="4" t="str">
         <f t="array" ref="C184">XLOOKUP(DataSet!$B184,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G184" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="I184" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="J184" s="4" t="s">
         <v>59</v>
@@ -18066,10 +18069,10 @@
         <v>253</v>
       </c>
       <c r="R184" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S184" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T184" s="4" t="s">
         <v>65</v>
@@ -18102,32 +18105,32 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C185" s="4" t="str">
         <f t="array" ref="C185">XLOOKUP(DataSet!$B185,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J185" s="4" t="s">
         <v>59</v>
@@ -18154,10 +18157,10 @@
         <v>253</v>
       </c>
       <c r="R185" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S185" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T185" s="4" t="s">
         <v>65</v>
@@ -18190,32 +18193,32 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C186" s="4" t="str">
         <f t="array" ref="C186">XLOOKUP(DataSet!$B186,'Description for Attributes'!$I$6:$I$11,'Description for Attributes'!$J$6:$J$11,"")</f>
         <v>Alpen</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>59</v>
@@ -18242,10 +18245,10 @@
         <v>253</v>
       </c>
       <c r="R186" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S186" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T186" s="4" t="s">
         <v>65</v>
@@ -18278,31 +18281,31 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>59</v>
@@ -18311,7 +18314,7 @@
         <v>60</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M187" s="4" t="s">
         <v>253</v>
@@ -18320,7 +18323,7 @@
         <v>249</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P187" s="4" t="s">
         <v>233</v>
@@ -18341,10 +18344,10 @@
         <v>252</v>
       </c>
       <c r="V187" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W187" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X187" s="4" t="s">
         <v>61</v>
@@ -18373,31 +18376,31 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>59</v>
@@ -18406,7 +18409,7 @@
         <v>94</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M188" s="4" t="s">
         <v>250</v>
@@ -18436,10 +18439,10 @@
         <v>252</v>
       </c>
       <c r="V188" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W188" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X188" s="4" t="s">
         <v>61</v>
@@ -18468,31 +18471,31 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>59</v>
@@ -18501,7 +18504,7 @@
         <v>138</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M189" s="4" t="s">
         <v>253</v>
@@ -18510,7 +18513,7 @@
         <v>249</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P189" s="4" t="s">
         <v>233</v>
@@ -18531,10 +18534,10 @@
         <v>252</v>
       </c>
       <c r="V189" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W189" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X189" s="4" t="s">
         <v>61</v>
@@ -18563,31 +18566,31 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>59</v>
@@ -18596,7 +18599,7 @@
         <v>211</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M190" s="4" t="s">
         <v>250</v>
@@ -18626,10 +18629,10 @@
         <v>252</v>
       </c>
       <c r="V190" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W190" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X190" s="4" t="s">
         <v>61</v>
@@ -18658,31 +18661,31 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G191" s="8" t="s">
-        <v>518</v>
+      <c r="G191" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>59</v>
@@ -18691,7 +18694,7 @@
         <v>239</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M191" s="8" t="s">
         <v>253</v>
@@ -18700,7 +18703,7 @@
         <v>249</v>
       </c>
       <c r="O191" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P191" s="4" t="s">
         <v>233</v>
@@ -19586,16 +19589,16 @@
   <sheetData>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>0</v>
@@ -19604,7 +19607,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>18</v>
@@ -19615,13 +19618,13 @@
         <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>51</v>
@@ -19630,10 +19633,10 @@
         <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -19641,13 +19644,13 @@
         <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>117</v>
@@ -19656,7 +19659,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>55</v>
@@ -19667,13 +19670,13 @@
         <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>225</v>
@@ -19682,7 +19685,7 @@
         <v>226</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>345</v>
@@ -19693,13 +19696,13 @@
         <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>243</v>
@@ -19708,7 +19711,7 @@
         <v>244</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>340</v>
@@ -19719,13 +19722,13 @@
         <v>233</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>243</v>
@@ -19734,7 +19737,7 @@
         <v>343</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>120</v>
@@ -19742,25 +19745,25 @@
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12">
@@ -19768,22 +19771,22 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13">
@@ -19791,51 +19794,51 @@
         <v>249</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>253</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -19843,23 +19846,23 @@
         <v>252</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -19867,55 +19870,55 @@
         <v>232</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="E22" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="E23" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="E24" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="E25" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="E26" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="E27" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -19923,7 +19926,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -19931,7 +19934,7 @@
         <v>94</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -19939,7 +19942,7 @@
         <v>138</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -19947,15 +19950,15 @@
         <v>211</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="E32" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -19968,282 +19971,282 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="E34" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="E35" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="E36" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="E37" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="E38" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="E39" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="E40" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="E41" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="E42" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="E43" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="E44" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="E45" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="E46" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="E47" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="E48" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="E49" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="E50" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="E51" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="E52" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="E53" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="E54" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="E55" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="E56" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="E57" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="E58" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="E59" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="E60" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="E61" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="E62" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="E63" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="E64" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="E65" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="E66" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="E67" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="E68" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -20251,15 +20254,15 @@
         <v>62</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="E70" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -20267,23 +20270,23 @@
         <v>239</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="E72" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="E73" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -20291,39 +20294,39 @@
         <v>76</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="E75" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="E76" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="E77" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="E78" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -20331,7 +20334,7 @@
         <v>85</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -20339,7 +20342,7 @@
         <v>236</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -20347,7 +20350,7 @@
         <v>242</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -20355,23 +20358,23 @@
         <v>95</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="E83" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="E84" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1"/>
@@ -21331,13 +21334,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7">
@@ -21354,7 +21357,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8">
@@ -21371,7 +21374,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9">
@@ -21388,7 +21391,7 @@
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10">
@@ -21405,7 +21408,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11">
@@ -21422,7 +21425,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12">
@@ -21439,7 +21442,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13">
@@ -21456,7 +21459,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14">
@@ -21473,7 +21476,7 @@
         <v>119</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15">
@@ -21490,7 +21493,7 @@
         <v>162</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16">
@@ -21507,7 +21510,7 @@
         <v>228</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17">
@@ -21524,7 +21527,7 @@
         <v>246</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18">
@@ -21541,7 +21544,7 @@
         <v>335</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19">
@@ -21558,7 +21561,7 @@
         <v>339</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20">
@@ -21575,7 +21578,7 @@
         <v>344</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21">
@@ -21586,98 +21589,98 @@
         <v>343</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="F21" s="22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>340</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1"/>
